--- a/FamilyFeud/MVVM/DataBase/QuestionsPL.xlsx
+++ b/FamilyFeud/MVVM/DataBase/QuestionsPL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wojci\source\repos\FamilyFeud\FamilyFeud\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pubquiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF7C3C8F-A799-428C-8C5C-AF77AF09EE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96C2BC75-D850-41FD-9A98-02DB7E93EA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3110" yWindow="2030" windowWidth="28800" windowHeight="15540" xr2:uid="{494BB34E-8831-40C6-A95B-85BCEC4AE2A2}"/>
+    <workbookView xWindow="2100" yWindow="1630" windowWidth="28800" windowHeight="15540" xr2:uid="{494BB34E-8831-40C6-A95B-85BCEC4AE2A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -1625,7 +1625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1633,6 +1633,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1951,22 +1952,23 @@
   <dimension ref="A1:B580"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="7" max="7" width="9.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="4">
         <v>5</v>
       </c>
     </row>
@@ -1974,7 +1976,7 @@
       <c r="A2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>47</v>
       </c>
     </row>
@@ -1982,7 +1984,7 @@
       <c r="A3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>33</v>
       </c>
     </row>
@@ -1990,7 +1992,7 @@
       <c r="A4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>19</v>
       </c>
     </row>
@@ -1998,7 +2000,7 @@
       <c r="A5" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2006,7 +2008,7 @@
       <c r="A6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>7</v>
       </c>
     </row>
@@ -2014,7 +2016,7 @@
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2022,7 +2024,7 @@
       <c r="A8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>39</v>
       </c>
     </row>
@@ -2030,7 +2032,7 @@
       <c r="A9" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>32</v>
       </c>
     </row>
@@ -2038,7 +2040,7 @@
       <c r="A10" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>25</v>
       </c>
     </row>
@@ -2046,7 +2048,7 @@
       <c r="A11" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>13</v>
       </c>
     </row>
@@ -2054,7 +2056,7 @@
       <c r="A12" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>9</v>
       </c>
     </row>
@@ -2062,7 +2064,7 @@
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2070,7 +2072,7 @@
       <c r="A14" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>52</v>
       </c>
     </row>
@@ -2078,7 +2080,7 @@
       <c r="A15" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>45</v>
       </c>
     </row>
@@ -2086,7 +2088,7 @@
       <c r="A16" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>29</v>
       </c>
     </row>
@@ -2094,7 +2096,7 @@
       <c r="A17" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2102,7 +2104,7 @@
       <c r="A18" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2110,7 +2112,7 @@
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2118,7 +2120,7 @@
       <c r="A20" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>37</v>
       </c>
     </row>
@@ -2126,7 +2128,7 @@
       <c r="A21" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>31</v>
       </c>
     </row>
@@ -2134,7 +2136,7 @@
       <c r="A22" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <v>23</v>
       </c>
     </row>
@@ -2142,7 +2144,7 @@
       <c r="A23" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2150,7 +2152,7 @@
       <c r="A24" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2158,7 +2160,7 @@
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2166,7 +2168,7 @@
       <c r="A26" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <v>44</v>
       </c>
     </row>
@@ -2174,7 +2176,7 @@
       <c r="A27" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <v>39</v>
       </c>
     </row>
@@ -2182,7 +2184,7 @@
       <c r="A28" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="4">
         <v>28</v>
       </c>
     </row>
@@ -2190,7 +2192,7 @@
       <c r="A29" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <v>19</v>
       </c>
     </row>
@@ -2198,7 +2200,7 @@
       <c r="A30" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="4">
         <v>8</v>
       </c>
     </row>
@@ -2206,7 +2208,7 @@
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2214,7 +2216,7 @@
       <c r="A32" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="4">
         <v>38</v>
       </c>
     </row>
@@ -2222,7 +2224,7 @@
       <c r="A33" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="4">
         <v>32</v>
       </c>
     </row>
@@ -2230,7 +2232,7 @@
       <c r="A34" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="4">
         <v>20</v>
       </c>
     </row>
@@ -2238,7 +2240,7 @@
       <c r="A35" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="4">
         <v>17</v>
       </c>
     </row>
@@ -2246,7 +2248,7 @@
       <c r="A36" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="4">
         <v>9</v>
       </c>
     </row>
@@ -2254,7 +2256,7 @@
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2262,7 +2264,7 @@
       <c r="A38" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="4">
         <v>43</v>
       </c>
     </row>
@@ -2270,7 +2272,7 @@
       <c r="A39" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="4">
         <v>39</v>
       </c>
     </row>
@@ -2278,7 +2280,7 @@
       <c r="A40" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="4">
         <v>27</v>
       </c>
     </row>
@@ -2286,7 +2288,7 @@
       <c r="A41" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="4">
         <v>15</v>
       </c>
     </row>
@@ -2294,7 +2296,7 @@
       <c r="A42" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2302,7 +2304,7 @@
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2310,7 +2312,7 @@
       <c r="A44" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="4">
         <v>36</v>
       </c>
     </row>
@@ -2318,7 +2320,7 @@
       <c r="A45" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="4">
         <v>31</v>
       </c>
     </row>
@@ -2326,7 +2328,7 @@
       <c r="A46" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="4">
         <v>25</v>
       </c>
     </row>
@@ -2334,7 +2336,7 @@
       <c r="A47" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="4">
         <v>18</v>
       </c>
     </row>
@@ -2342,7 +2344,7 @@
       <c r="A48" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="4">
         <v>7</v>
       </c>
     </row>
@@ -2350,7 +2352,7 @@
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2358,7 +2360,7 @@
       <c r="A50" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="4">
         <v>41</v>
       </c>
     </row>
@@ -2366,7 +2368,7 @@
       <c r="A51" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="4">
         <v>38</v>
       </c>
     </row>
@@ -2374,7 +2376,7 @@
       <c r="A52" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="4">
         <v>29</v>
       </c>
     </row>
@@ -2382,7 +2384,7 @@
       <c r="A53" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2390,7 +2392,7 @@
       <c r="A54" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="4">
         <v>10</v>
       </c>
     </row>
@@ -2398,7 +2400,7 @@
       <c r="A55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2406,7 +2408,7 @@
       <c r="A56" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="4">
         <v>47</v>
       </c>
     </row>
@@ -2414,7 +2416,7 @@
       <c r="A57" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="4">
         <v>39</v>
       </c>
     </row>
@@ -2422,7 +2424,7 @@
       <c r="A58" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="4">
         <v>31</v>
       </c>
     </row>
@@ -2430,7 +2432,7 @@
       <c r="A59" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="4">
         <v>24</v>
       </c>
     </row>
@@ -2438,7 +2440,7 @@
       <c r="A60" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="4">
         <v>12</v>
       </c>
     </row>
@@ -2446,7 +2448,7 @@
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2454,7 +2456,7 @@
       <c r="A62" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="4">
         <v>51</v>
       </c>
     </row>
@@ -2462,7 +2464,7 @@
       <c r="A63" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="4">
         <v>37</v>
       </c>
     </row>
@@ -2470,7 +2472,7 @@
       <c r="A64" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="4">
         <v>32</v>
       </c>
     </row>
@@ -2478,7 +2480,7 @@
       <c r="A65" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="4">
         <v>23</v>
       </c>
     </row>
@@ -2486,7 +2488,7 @@
       <c r="A66" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="4">
         <v>14</v>
       </c>
     </row>
@@ -2494,7 +2496,7 @@
       <c r="A67" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2502,7 +2504,7 @@
       <c r="A68" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="4">
         <v>46</v>
       </c>
     </row>
@@ -2510,7 +2512,7 @@
       <c r="A69" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="4">
         <v>38</v>
       </c>
     </row>
@@ -2518,7 +2520,7 @@
       <c r="A70" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="4">
         <v>27</v>
       </c>
     </row>
@@ -2526,7 +2528,7 @@
       <c r="A71" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="4">
         <v>17</v>
       </c>
     </row>
@@ -2534,7 +2536,7 @@
       <c r="A72" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="4">
         <v>8</v>
       </c>
     </row>
@@ -2542,7 +2544,7 @@
       <c r="A73" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2550,7 +2552,7 @@
       <c r="A74" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="4">
         <v>44</v>
       </c>
     </row>
@@ -2558,7 +2560,7 @@
       <c r="A75" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="4">
         <v>32</v>
       </c>
     </row>
@@ -2566,7 +2568,7 @@
       <c r="A76" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="4">
         <v>29</v>
       </c>
     </row>
@@ -2574,7 +2576,7 @@
       <c r="A77" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2582,7 +2584,7 @@
       <c r="A78" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="4">
         <v>6</v>
       </c>
     </row>
@@ -2590,7 +2592,7 @@
       <c r="A79" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2598,7 +2600,7 @@
       <c r="A80" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="4">
         <v>34</v>
       </c>
     </row>
@@ -2606,7 +2608,7 @@
       <c r="A81" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="4">
         <v>28</v>
       </c>
     </row>
@@ -2614,7 +2616,7 @@
       <c r="A82" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="4">
         <v>19</v>
       </c>
     </row>
@@ -2622,7 +2624,7 @@
       <c r="A83" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="4">
         <v>12</v>
       </c>
     </row>
@@ -2630,7 +2632,7 @@
       <c r="A84" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="4">
         <v>9</v>
       </c>
     </row>
@@ -2638,7 +2640,7 @@
       <c r="A85" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2646,7 +2648,7 @@
       <c r="A86" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="4">
         <v>31</v>
       </c>
     </row>
@@ -2654,7 +2656,7 @@
       <c r="A87" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="4">
         <v>27</v>
       </c>
     </row>
@@ -2662,7 +2664,7 @@
       <c r="A88" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="4">
         <v>17</v>
       </c>
     </row>
@@ -2670,7 +2672,7 @@
       <c r="A89" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2678,7 +2680,7 @@
       <c r="A90" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2686,7 +2688,7 @@
       <c r="A91" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2694,7 +2696,7 @@
       <c r="A92" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="4">
         <v>49</v>
       </c>
     </row>
@@ -2702,7 +2704,7 @@
       <c r="A93" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="4">
         <v>41</v>
       </c>
     </row>
@@ -2710,7 +2712,7 @@
       <c r="A94" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="4">
         <v>28</v>
       </c>
     </row>
@@ -2718,7 +2720,7 @@
       <c r="A95" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2726,7 +2728,7 @@
       <c r="A96" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="4">
         <v>8</v>
       </c>
     </row>
@@ -2734,7 +2736,7 @@
       <c r="A97" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2742,7 +2744,7 @@
       <c r="A98" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="4">
         <v>35</v>
       </c>
     </row>
@@ -2750,7 +2752,7 @@
       <c r="A99" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="4">
         <v>29</v>
       </c>
     </row>
@@ -2758,7 +2760,7 @@
       <c r="A100" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="4">
         <v>25</v>
       </c>
     </row>
@@ -2766,7 +2768,7 @@
       <c r="A101" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="4">
         <v>17</v>
       </c>
     </row>
@@ -2774,7 +2776,7 @@
       <c r="A102" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="4">
         <v>9</v>
       </c>
     </row>
@@ -2782,7 +2784,7 @@
       <c r="A103" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2790,7 +2792,7 @@
       <c r="A104" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="4">
         <v>49</v>
       </c>
     </row>
@@ -2798,7 +2800,7 @@
       <c r="A105" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="4">
         <v>43</v>
       </c>
     </row>
@@ -2806,7 +2808,7 @@
       <c r="A106" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="4">
         <v>33</v>
       </c>
     </row>
@@ -2814,7 +2816,7 @@
       <c r="A107" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="4">
         <v>21</v>
       </c>
     </row>
@@ -2822,7 +2824,7 @@
       <c r="A108" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="4">
         <v>14</v>
       </c>
     </row>
@@ -2830,7 +2832,7 @@
       <c r="A109" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2838,7 +2840,7 @@
       <c r="A110" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="4">
         <v>51</v>
       </c>
     </row>
@@ -2846,7 +2848,7 @@
       <c r="A111" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="4">
         <v>42</v>
       </c>
     </row>
@@ -2854,7 +2856,7 @@
       <c r="A112" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="4">
         <v>37</v>
       </c>
     </row>
@@ -2862,7 +2864,7 @@
       <c r="A113" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="4">
         <v>21</v>
       </c>
     </row>
@@ -2870,7 +2872,7 @@
       <c r="A114" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="4">
         <v>19</v>
       </c>
     </row>
@@ -2878,7 +2880,7 @@
       <c r="A115" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2886,7 +2888,7 @@
       <c r="A116" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="4">
         <v>39</v>
       </c>
     </row>
@@ -2894,7 +2896,7 @@
       <c r="A117" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="4">
         <v>31</v>
       </c>
     </row>
@@ -2902,7 +2904,7 @@
       <c r="A118" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="4">
         <v>26</v>
       </c>
     </row>
@@ -2910,7 +2912,7 @@
       <c r="A119" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="4">
         <v>17</v>
       </c>
     </row>
@@ -2918,7 +2920,7 @@
       <c r="A120" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="4">
         <v>10</v>
       </c>
     </row>
@@ -2926,7 +2928,7 @@
       <c r="A121" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2934,7 +2936,7 @@
       <c r="A122" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="4">
         <v>32</v>
       </c>
     </row>
@@ -2942,7 +2944,7 @@
       <c r="A123" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="4">
         <v>28</v>
       </c>
     </row>
@@ -2950,7 +2952,7 @@
       <c r="A124" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" s="4">
         <v>21</v>
       </c>
     </row>
@@ -2958,7 +2960,7 @@
       <c r="A125" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" s="4">
         <v>19</v>
       </c>
     </row>
@@ -2966,7 +2968,7 @@
       <c r="A126" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" s="4">
         <v>7</v>
       </c>
     </row>
@@ -2974,7 +2976,7 @@
       <c r="A127" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127" s="4">
         <v>5</v>
       </c>
     </row>
@@ -2982,7 +2984,7 @@
       <c r="A128" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128" s="4">
         <v>40</v>
       </c>
     </row>
@@ -2990,7 +2992,7 @@
       <c r="A129" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129" s="4">
         <v>37</v>
       </c>
     </row>
@@ -2998,7 +3000,7 @@
       <c r="A130" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" s="4">
         <v>29</v>
       </c>
     </row>
@@ -3006,7 +3008,7 @@
       <c r="A131" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131" s="4">
         <v>15</v>
       </c>
     </row>
@@ -3014,7 +3016,7 @@
       <c r="A132" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132" s="4">
         <v>9</v>
       </c>
     </row>
@@ -3022,7 +3024,7 @@
       <c r="A133" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133" s="4">
         <v>5</v>
       </c>
     </row>
@@ -3030,7 +3032,7 @@
       <c r="A134" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134" s="4">
         <v>47</v>
       </c>
     </row>
@@ -3038,7 +3040,7 @@
       <c r="A135" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" s="4">
         <v>39</v>
       </c>
     </row>
@@ -3046,7 +3048,7 @@
       <c r="A136" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="4">
         <v>21</v>
       </c>
     </row>
@@ -3054,7 +3056,7 @@
       <c r="A137" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3062,7 +3064,7 @@
       <c r="A138" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3070,15 +3072,15 @@
       <c r="A139" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B139" s="3">
-        <v>5</v>
+      <c r="B139" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="4">
         <v>37</v>
       </c>
     </row>
@@ -3086,7 +3088,7 @@
       <c r="A141" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="4">
         <v>26</v>
       </c>
     </row>
@@ -3094,7 +3096,7 @@
       <c r="A142" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="4">
         <v>14</v>
       </c>
     </row>
@@ -3102,15 +3104,15 @@
       <c r="A143" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B143" s="3">
-        <v>3</v>
+      <c r="B143" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="4">
         <v>51</v>
       </c>
     </row>
@@ -3118,7 +3120,7 @@
       <c r="A145" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="4">
         <v>47</v>
       </c>
     </row>
@@ -3126,7 +3128,7 @@
       <c r="A146" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="4">
         <v>33</v>
       </c>
     </row>
@@ -3134,7 +3136,7 @@
       <c r="A147" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="4">
         <v>21</v>
       </c>
     </row>
@@ -3142,7 +3144,7 @@
       <c r="A148" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148" s="4">
         <v>14</v>
       </c>
     </row>
@@ -3150,7 +3152,7 @@
       <c r="A149" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149" s="4">
         <v>5</v>
       </c>
     </row>
@@ -3158,7 +3160,7 @@
       <c r="A150" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" s="4">
         <v>38</v>
       </c>
     </row>
@@ -3166,7 +3168,7 @@
       <c r="A151" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" s="4">
         <v>32</v>
       </c>
     </row>
@@ -3174,7 +3176,7 @@
       <c r="A152" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" s="4">
         <v>26</v>
       </c>
     </row>
@@ -3182,7 +3184,7 @@
       <c r="A153" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153" s="4">
         <v>14</v>
       </c>
     </row>
@@ -3190,7 +3192,7 @@
       <c r="A154" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154" s="4">
         <v>7</v>
       </c>
     </row>
@@ -3198,7 +3200,7 @@
       <c r="A155" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155" s="4">
         <v>5</v>
       </c>
     </row>
@@ -3206,7 +3208,7 @@
       <c r="A156" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156" s="4">
         <v>31</v>
       </c>
     </row>
@@ -3214,7 +3216,7 @@
       <c r="A157" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157" s="4">
         <v>29</v>
       </c>
     </row>
@@ -3222,7 +3224,7 @@
       <c r="A158" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158" s="4">
         <v>23</v>
       </c>
     </row>
@@ -3230,7 +3232,7 @@
       <c r="A159" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159" s="4">
         <v>17</v>
       </c>
     </row>
@@ -3238,7 +3240,7 @@
       <c r="A160" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160" s="4">
         <v>10</v>
       </c>
     </row>
@@ -3246,7 +3248,7 @@
       <c r="A161" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161" s="4">
         <v>5</v>
       </c>
     </row>
@@ -3254,7 +3256,7 @@
       <c r="A162" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162" s="4">
         <v>35</v>
       </c>
     </row>
@@ -3262,7 +3264,7 @@
       <c r="A163" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B163" s="4">
         <v>31</v>
       </c>
     </row>
@@ -3270,7 +3272,7 @@
       <c r="A164" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B164" s="4">
         <v>26</v>
       </c>
     </row>
@@ -3278,7 +3280,7 @@
       <c r="A165" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165" s="4">
         <v>13</v>
       </c>
     </row>
@@ -3286,7 +3288,7 @@
       <c r="A166" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166" s="4">
         <v>8</v>
       </c>
     </row>
@@ -3294,7 +3296,7 @@
       <c r="A167" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B167" s="4">
         <v>5</v>
       </c>
     </row>
@@ -3302,7 +3304,7 @@
       <c r="A168" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168" s="4">
         <v>43</v>
       </c>
     </row>
@@ -3310,7 +3312,7 @@
       <c r="A169" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169" s="4">
         <v>37</v>
       </c>
     </row>
@@ -3318,7 +3320,7 @@
       <c r="A170" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B170" s="3">
+      <c r="B170" s="4">
         <v>24</v>
       </c>
     </row>
@@ -3326,7 +3328,7 @@
       <c r="A171" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171" s="4">
         <v>15</v>
       </c>
     </row>
@@ -3334,7 +3336,7 @@
       <c r="A172" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B172" s="3">
+      <c r="B172" s="4">
         <v>5</v>
       </c>
     </row>
@@ -3342,7 +3344,7 @@
       <c r="A173" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B173" s="3">
+      <c r="B173" s="4">
         <v>5</v>
       </c>
     </row>
@@ -3350,7 +3352,7 @@
       <c r="A174" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B174" s="3">
+      <c r="B174" s="4">
         <v>41</v>
       </c>
     </row>
@@ -3358,7 +3360,7 @@
       <c r="A175" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B175" s="3">
+      <c r="B175" s="4">
         <v>39</v>
       </c>
     </row>
@@ -3366,7 +3368,7 @@
       <c r="A176" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B176" s="3">
+      <c r="B176" s="4">
         <v>27</v>
       </c>
     </row>
@@ -3374,7 +3376,7 @@
       <c r="A177" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B177" s="3">
+      <c r="B177" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3382,7 +3384,7 @@
       <c r="A178" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B178" s="3">
+      <c r="B178" s="4">
         <v>9</v>
       </c>
     </row>
@@ -3390,7 +3392,7 @@
       <c r="A179" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B179" s="3">
+      <c r="B179" s="4">
         <v>5</v>
       </c>
     </row>
@@ -3398,7 +3400,7 @@
       <c r="A180" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B180" s="3">
+      <c r="B180" s="4">
         <v>53</v>
       </c>
     </row>
@@ -3406,7 +3408,7 @@
       <c r="A181" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B181" s="3">
+      <c r="B181" s="4">
         <v>38</v>
       </c>
     </row>
@@ -3414,7 +3416,7 @@
       <c r="A182" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B182" s="3">
+      <c r="B182" s="4">
         <v>25</v>
       </c>
     </row>
@@ -3422,7 +3424,7 @@
       <c r="A183" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B183" s="3">
+      <c r="B183" s="4">
         <v>13</v>
       </c>
     </row>
@@ -3430,7 +3432,7 @@
       <c r="A184" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B184" s="3">
+      <c r="B184" s="4">
         <v>4</v>
       </c>
     </row>
@@ -3438,7 +3440,7 @@
       <c r="A185" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B185" s="3">
+      <c r="B185" s="4">
         <v>5</v>
       </c>
     </row>
@@ -3446,7 +3448,7 @@
       <c r="A186" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B186" s="3">
+      <c r="B186" s="4">
         <v>46</v>
       </c>
     </row>
@@ -3454,7 +3456,7 @@
       <c r="A187" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B187" s="3">
+      <c r="B187" s="4">
         <v>38</v>
       </c>
     </row>
@@ -3462,7 +3464,7 @@
       <c r="A188" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B188" s="3">
+      <c r="B188" s="4">
         <v>27</v>
       </c>
     </row>
@@ -3470,7 +3472,7 @@
       <c r="A189" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B189" s="3">
+      <c r="B189" s="4">
         <v>15</v>
       </c>
     </row>
@@ -3478,7 +3480,7 @@
       <c r="A190" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B190" s="3">
+      <c r="B190" s="4">
         <v>8</v>
       </c>
     </row>
@@ -3486,7 +3488,7 @@
       <c r="A191" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B191" s="3">
+      <c r="B191" s="4">
         <v>5</v>
       </c>
     </row>
@@ -3494,7 +3496,7 @@
       <c r="A192" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B192" s="3">
+      <c r="B192" s="4">
         <v>37</v>
       </c>
     </row>
@@ -3502,7 +3504,7 @@
       <c r="A193" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B193" s="3">
+      <c r="B193" s="4">
         <v>31</v>
       </c>
     </row>
@@ -3510,7 +3512,7 @@
       <c r="A194" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B194" s="3">
+      <c r="B194" s="4">
         <v>24</v>
       </c>
     </row>
@@ -3518,7 +3520,7 @@
       <c r="A195" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B195" s="3">
+      <c r="B195" s="4">
         <v>14</v>
       </c>
     </row>
@@ -3526,7 +3528,7 @@
       <c r="A196" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B196" s="3">
+      <c r="B196" s="4">
         <v>7</v>
       </c>
     </row>
@@ -3534,7 +3536,7 @@
       <c r="A197" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B197" s="3">
+      <c r="B197" s="4">
         <v>5</v>
       </c>
     </row>
@@ -3542,7 +3544,7 @@
       <c r="A198" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B198" s="3">
+      <c r="B198" s="4">
         <v>45</v>
       </c>
     </row>
@@ -3550,7 +3552,7 @@
       <c r="A199" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B199" s="3">
+      <c r="B199" s="4">
         <v>32</v>
       </c>
     </row>
@@ -3558,7 +3560,7 @@
       <c r="A200" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B200" s="3">
+      <c r="B200" s="4">
         <v>21</v>
       </c>
     </row>
@@ -3566,7 +3568,7 @@
       <c r="A201" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B201" s="3">
+      <c r="B201" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3574,7 +3576,7 @@
       <c r="A202" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B202" s="3">
+      <c r="B202" s="4">
         <v>9</v>
       </c>
     </row>
@@ -3582,7 +3584,7 @@
       <c r="A203" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B203" s="3">
+      <c r="B203" s="4">
         <v>5</v>
       </c>
     </row>
@@ -3590,7 +3592,7 @@
       <c r="A204" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B204" s="3">
+      <c r="B204" s="4">
         <v>53</v>
       </c>
     </row>
@@ -3598,7 +3600,7 @@
       <c r="A205" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B205" s="3">
+      <c r="B205" s="4">
         <v>46</v>
       </c>
     </row>
@@ -3606,7 +3608,7 @@
       <c r="A206" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B206" s="3">
+      <c r="B206" s="4">
         <v>30</v>
       </c>
     </row>
@@ -3614,7 +3616,7 @@
       <c r="A207" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B207" s="3">
+      <c r="B207" s="4">
         <v>21</v>
       </c>
     </row>
@@ -3622,7 +3624,7 @@
       <c r="A208" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B208" s="3">
+      <c r="B208" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3630,7 +3632,7 @@
       <c r="A209" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B209" s="3">
+      <c r="B209" s="4">
         <v>5</v>
       </c>
     </row>
@@ -3638,7 +3640,7 @@
       <c r="A210" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B210" s="3">
+      <c r="B210" s="4">
         <v>43</v>
       </c>
     </row>
@@ -3646,7 +3648,7 @@
       <c r="A211" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B211" s="3">
+      <c r="B211" s="4">
         <v>33</v>
       </c>
     </row>
@@ -3654,7 +3656,7 @@
       <c r="A212" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B212" s="3">
+      <c r="B212" s="4">
         <v>25</v>
       </c>
     </row>
@@ -3662,7 +3664,7 @@
       <c r="A213" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B213" s="3">
+      <c r="B213" s="4">
         <v>13</v>
       </c>
     </row>
@@ -3670,7 +3672,7 @@
       <c r="A214" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B214" s="3">
+      <c r="B214" s="4">
         <v>6</v>
       </c>
     </row>
@@ -3678,7 +3680,7 @@
       <c r="A215" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B215" s="3">
+      <c r="B215" s="4">
         <v>5</v>
       </c>
     </row>
@@ -3686,7 +3688,7 @@
       <c r="A216" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B216" s="3">
+      <c r="B216" s="4">
         <v>45</v>
       </c>
     </row>
@@ -3694,7 +3696,7 @@
       <c r="A217" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B217" s="3">
+      <c r="B217" s="4">
         <v>32</v>
       </c>
     </row>
@@ -3702,7 +3704,7 @@
       <c r="A218" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B218" s="3">
+      <c r="B218" s="4">
         <v>27</v>
       </c>
     </row>
@@ -3710,7 +3712,7 @@
       <c r="A219" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B219" s="3">
+      <c r="B219" s="4">
         <v>14</v>
       </c>
     </row>
@@ -3718,7 +3720,7 @@
       <c r="A220" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B220" s="3">
+      <c r="B220" s="4">
         <v>8</v>
       </c>
     </row>
@@ -3726,7 +3728,7 @@
       <c r="A221" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B221" s="3">
+      <c r="B221" s="4">
         <v>5</v>
       </c>
     </row>
@@ -3734,7 +3736,7 @@
       <c r="A222" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B222" s="3">
+      <c r="B222" s="4">
         <v>47</v>
       </c>
     </row>
@@ -3742,7 +3744,7 @@
       <c r="A223" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B223" s="3">
+      <c r="B223" s="4">
         <v>33</v>
       </c>
     </row>
@@ -3750,7 +3752,7 @@
       <c r="A224" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B224" s="3">
+      <c r="B224" s="4">
         <v>29</v>
       </c>
     </row>
@@ -3758,7 +3760,7 @@
       <c r="A225" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B225" s="3">
+      <c r="B225" s="4">
         <v>17</v>
       </c>
     </row>
@@ -3766,7 +3768,7 @@
       <c r="A226" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B226" s="3">
+      <c r="B226" s="4">
         <v>7</v>
       </c>
     </row>
@@ -3774,15 +3776,15 @@
       <c r="A227" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B227" s="3">
-        <v>5</v>
+      <c r="B227" s="4">
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B228" s="3">
+      <c r="B228" s="4">
         <v>49</v>
       </c>
     </row>
@@ -3790,7 +3792,7 @@
       <c r="A229" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B229" s="3">
+      <c r="B229" s="4">
         <v>37</v>
       </c>
     </row>
@@ -3798,7 +3800,7 @@
       <c r="A230" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B230" s="3">
+      <c r="B230" s="4">
         <v>20</v>
       </c>
     </row>
@@ -3806,7 +3808,7 @@
       <c r="A231" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B231" s="3">
+      <c r="B231" s="4">
         <v>17</v>
       </c>
     </row>
@@ -3814,15 +3816,15 @@
       <c r="A232" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B232" s="3">
-        <v>4</v>
+      <c r="B232" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B233" s="3">
+      <c r="B233" s="4">
         <v>41</v>
       </c>
     </row>
@@ -3830,7 +3832,7 @@
       <c r="A234" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B234" s="3">
+      <c r="B234" s="4">
         <v>39</v>
       </c>
     </row>
@@ -3838,7 +3840,7 @@
       <c r="A235" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B235" s="3">
+      <c r="B235" s="4">
         <v>25</v>
       </c>
     </row>
@@ -3846,7 +3848,7 @@
       <c r="A236" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B236" s="3">
+      <c r="B236" s="4">
         <v>13</v>
       </c>
     </row>
@@ -3854,7 +3856,7 @@
       <c r="A237" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B237" s="3">
+      <c r="B237" s="4">
         <v>5</v>
       </c>
     </row>
@@ -3862,7 +3864,7 @@
       <c r="A238" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B238" s="3">
+      <c r="B238" s="4">
         <v>5</v>
       </c>
     </row>
@@ -3870,7 +3872,7 @@
       <c r="A239" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B239" s="3">
+      <c r="B239" s="4">
         <v>32</v>
       </c>
     </row>
@@ -3878,7 +3880,7 @@
       <c r="A240" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B240" s="3">
+      <c r="B240" s="4">
         <v>27</v>
       </c>
     </row>
@@ -3886,7 +3888,7 @@
       <c r="A241" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B241" s="3">
+      <c r="B241" s="4">
         <v>17</v>
       </c>
     </row>
@@ -3894,7 +3896,7 @@
       <c r="A242" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B242" s="3">
+      <c r="B242" s="4">
         <v>12</v>
       </c>
     </row>
@@ -3902,7 +3904,7 @@
       <c r="A243" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B243" s="3">
+      <c r="B243" s="4">
         <v>6</v>
       </c>
     </row>
@@ -3910,7 +3912,7 @@
       <c r="A244" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B244" s="3">
+      <c r="B244" s="4">
         <v>5</v>
       </c>
     </row>
@@ -3918,7 +3920,7 @@
       <c r="A245" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B245" s="3">
+      <c r="B245" s="4">
         <v>51</v>
       </c>
     </row>
@@ -3926,7 +3928,7 @@
       <c r="A246" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B246" s="3">
+      <c r="B246" s="4">
         <v>48</v>
       </c>
     </row>
@@ -3934,7 +3936,7 @@
       <c r="A247" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B247" s="3">
+      <c r="B247" s="4">
         <v>31</v>
       </c>
     </row>
@@ -3942,7 +3944,7 @@
       <c r="A248" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B248" s="3">
+      <c r="B248" s="4">
         <v>20</v>
       </c>
     </row>
@@ -3950,7 +3952,7 @@
       <c r="A249" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B249" s="3">
+      <c r="B249" s="4">
         <v>13</v>
       </c>
     </row>
@@ -3958,7 +3960,7 @@
       <c r="A250" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B250" s="3">
+      <c r="B250" s="4">
         <v>5</v>
       </c>
     </row>
@@ -3966,7 +3968,7 @@
       <c r="A251" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B251" s="3">
+      <c r="B251" s="4">
         <v>45</v>
       </c>
     </row>
@@ -3974,7 +3976,7 @@
       <c r="A252" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B252" s="3">
+      <c r="B252" s="4">
         <v>38</v>
       </c>
     </row>
@@ -3982,7 +3984,7 @@
       <c r="A253" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B253" s="3">
+      <c r="B253" s="4">
         <v>29</v>
       </c>
     </row>
@@ -3990,7 +3992,7 @@
       <c r="A254" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B254" s="3">
+      <c r="B254" s="4">
         <v>14</v>
       </c>
     </row>
@@ -3998,7 +4000,7 @@
       <c r="A255" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B255" s="3">
+      <c r="B255" s="4">
         <v>7</v>
       </c>
     </row>
@@ -4006,7 +4008,7 @@
       <c r="A256" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B256" s="3">
+      <c r="B256" s="4">
         <v>5</v>
       </c>
     </row>
@@ -4014,7 +4016,7 @@
       <c r="A257" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B257" s="3">
+      <c r="B257" s="4">
         <v>39</v>
       </c>
     </row>
@@ -4022,7 +4024,7 @@
       <c r="A258" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B258" s="3">
+      <c r="B258" s="4">
         <v>31</v>
       </c>
     </row>
@@ -4030,7 +4032,7 @@
       <c r="A259" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B259" s="3">
+      <c r="B259" s="4">
         <v>25</v>
       </c>
     </row>
@@ -4038,7 +4040,7 @@
       <c r="A260" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B260" s="3">
+      <c r="B260" s="4">
         <v>12</v>
       </c>
     </row>
@@ -4046,7 +4048,7 @@
       <c r="A261" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B261" s="3">
+      <c r="B261" s="4">
         <v>8</v>
       </c>
     </row>
@@ -4054,15 +4056,15 @@
       <c r="A262" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B262" s="3">
-        <v>5</v>
+      <c r="B262" s="4">
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B263" s="3">
+      <c r="B263" s="4">
         <v>36</v>
       </c>
     </row>
@@ -4070,7 +4072,7 @@
       <c r="A264" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B264" s="3">
+      <c r="B264" s="4">
         <v>28</v>
       </c>
     </row>
@@ -4078,7 +4080,7 @@
       <c r="A265" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B265" s="3">
+      <c r="B265" s="4">
         <v>21</v>
       </c>
     </row>
@@ -4086,7 +4088,7 @@
       <c r="A266" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B266" s="3">
+      <c r="B266" s="4">
         <v>15</v>
       </c>
     </row>
@@ -4094,15 +4096,15 @@
       <c r="A267" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B267" s="3">
-        <v>4</v>
+      <c r="B267" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B268" s="3">
+      <c r="B268" s="4">
         <v>47</v>
       </c>
     </row>
@@ -4110,7 +4112,7 @@
       <c r="A269" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B269" s="3">
+      <c r="B269" s="4">
         <v>38</v>
       </c>
     </row>
@@ -4118,7 +4120,7 @@
       <c r="A270" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B270" s="3">
+      <c r="B270" s="4">
         <v>26</v>
       </c>
     </row>
@@ -4126,7 +4128,7 @@
       <c r="A271" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B271" s="3">
+      <c r="B271" s="4">
         <v>13</v>
       </c>
     </row>
@@ -4134,7 +4136,7 @@
       <c r="A272" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B272" s="3">
+      <c r="B272" s="4">
         <v>10</v>
       </c>
     </row>
@@ -4142,7 +4144,7 @@
       <c r="A273" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B273" s="3">
+      <c r="B273" s="4">
         <v>5</v>
       </c>
     </row>
@@ -4150,7 +4152,7 @@
       <c r="A274" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B274" s="3">
+      <c r="B274" s="4">
         <v>31</v>
       </c>
     </row>
@@ -4158,7 +4160,7 @@
       <c r="A275" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B275" s="3">
+      <c r="B275" s="4">
         <v>26</v>
       </c>
     </row>
@@ -4166,7 +4168,7 @@
       <c r="A276" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B276" s="3">
+      <c r="B276" s="4">
         <v>17</v>
       </c>
     </row>
@@ -4174,7 +4176,7 @@
       <c r="A277" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B277" s="3">
+      <c r="B277" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4182,7 +4184,7 @@
       <c r="A278" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B278" s="3">
+      <c r="B278" s="4">
         <v>5</v>
       </c>
     </row>
@@ -4190,15 +4192,15 @@
       <c r="A279" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B279" s="3">
-        <v>5</v>
+      <c r="B279" s="4">
+        <v>4</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B280" s="3">
+      <c r="B280" s="4">
         <v>32</v>
       </c>
     </row>
@@ -4206,7 +4208,7 @@
       <c r="A281" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B281" s="3">
+      <c r="B281" s="4">
         <v>24</v>
       </c>
     </row>
@@ -4214,7 +4216,7 @@
       <c r="A282" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B282" s="3">
+      <c r="B282" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4222,7 +4224,7 @@
       <c r="A283" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B283" s="3">
+      <c r="B283" s="4">
         <v>8</v>
       </c>
     </row>
@@ -4230,15 +4232,15 @@
       <c r="A284" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B284" s="3">
-        <v>4</v>
+      <c r="B284" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B285" s="3">
+      <c r="B285" s="4">
         <v>47</v>
       </c>
     </row>
@@ -4246,7 +4248,7 @@
       <c r="A286" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B286" s="3">
+      <c r="B286" s="4">
         <v>39</v>
       </c>
     </row>
@@ -4254,7 +4256,7 @@
       <c r="A287" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B287" s="3">
+      <c r="B287" s="4">
         <v>23</v>
       </c>
     </row>
@@ -4262,7 +4264,7 @@
       <c r="A288" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B288" s="3">
+      <c r="B288" s="4">
         <v>21</v>
       </c>
     </row>
@@ -4270,7 +4272,7 @@
       <c r="A289" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B289" s="3">
+      <c r="B289" s="4">
         <v>12</v>
       </c>
     </row>
@@ -4278,15 +4280,15 @@
       <c r="A290" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B290" s="3">
-        <v>5</v>
+      <c r="B290" s="4">
+        <v>4</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B291" s="3">
+      <c r="B291" s="4">
         <v>44</v>
       </c>
     </row>
@@ -4294,7 +4296,7 @@
       <c r="A292" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B292" s="3">
+      <c r="B292" s="4">
         <v>33</v>
       </c>
     </row>
@@ -4302,7 +4304,7 @@
       <c r="A293" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B293" s="3">
+      <c r="B293" s="4">
         <v>21</v>
       </c>
     </row>
@@ -4310,7 +4312,7 @@
       <c r="A294" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B294" s="3">
+      <c r="B294" s="4">
         <v>9</v>
       </c>
     </row>
@@ -4318,7 +4320,7 @@
       <c r="A295" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B295" s="3">
+      <c r="B295" s="4">
         <v>4</v>
       </c>
     </row>
@@ -4326,7 +4328,7 @@
       <c r="A296" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B296" s="3">
+      <c r="B296" s="4">
         <v>37</v>
       </c>
     </row>
@@ -4334,7 +4336,7 @@
       <c r="A297" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B297" s="3">
+      <c r="B297" s="4">
         <v>25</v>
       </c>
     </row>
@@ -4342,7 +4344,7 @@
       <c r="A298" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B298" s="3">
+      <c r="B298" s="4">
         <v>17</v>
       </c>
     </row>
@@ -4350,7 +4352,7 @@
       <c r="A299" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B299" s="3">
+      <c r="B299" s="4">
         <v>10</v>
       </c>
     </row>
@@ -4358,15 +4360,15 @@
       <c r="A300" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B300" s="3">
-        <v>4</v>
+      <c r="B300" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A301" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B301" s="3">
+      <c r="B301" s="4">
         <v>42</v>
       </c>
     </row>
@@ -4374,7 +4376,7 @@
       <c r="A302" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B302" s="3">
+      <c r="B302" s="4">
         <v>38</v>
       </c>
     </row>
@@ -4382,7 +4384,7 @@
       <c r="A303" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B303" s="3">
+      <c r="B303" s="4">
         <v>27</v>
       </c>
     </row>
@@ -4390,7 +4392,7 @@
       <c r="A304" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B304" s="3">
+      <c r="B304" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4398,7 +4400,7 @@
       <c r="A305" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B305" s="3">
+      <c r="B305" s="4">
         <v>8</v>
       </c>
     </row>
@@ -4406,7 +4408,7 @@
       <c r="A306" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B306" s="3">
+      <c r="B306" s="4">
         <v>5</v>
       </c>
     </row>
@@ -4414,7 +4416,7 @@
       <c r="A307" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B307" s="3">
+      <c r="B307" s="4">
         <v>46</v>
       </c>
     </row>
@@ -4422,7 +4424,7 @@
       <c r="A308" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B308" s="3">
+      <c r="B308" s="4">
         <v>41</v>
       </c>
     </row>
@@ -4430,7 +4432,7 @@
       <c r="A309" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B309" s="3">
+      <c r="B309" s="4">
         <v>35</v>
       </c>
     </row>
@@ -4438,7 +4440,7 @@
       <c r="A310" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B310" s="3">
+      <c r="B310" s="4">
         <v>22</v>
       </c>
     </row>
@@ -4446,7 +4448,7 @@
       <c r="A311" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B311" s="3">
+      <c r="B311" s="4">
         <v>13</v>
       </c>
     </row>
@@ -4454,7 +4456,7 @@
       <c r="A312" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B312" s="3">
+      <c r="B312" s="4">
         <v>5</v>
       </c>
     </row>
@@ -4462,7 +4464,7 @@
       <c r="A313" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B313" s="3">
+      <c r="B313" s="4">
         <v>43</v>
       </c>
     </row>
@@ -4470,7 +4472,7 @@
       <c r="A314" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B314" s="3">
+      <c r="B314" s="4">
         <v>32</v>
       </c>
     </row>
@@ -4478,7 +4480,7 @@
       <c r="A315" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B315" s="3">
+      <c r="B315" s="4">
         <v>24</v>
       </c>
     </row>
@@ -4486,7 +4488,7 @@
       <c r="A316" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B316" s="3">
+      <c r="B316" s="4">
         <v>13</v>
       </c>
     </row>
@@ -4494,7 +4496,7 @@
       <c r="A317" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B317" s="3">
+      <c r="B317" s="4">
         <v>6</v>
       </c>
     </row>
@@ -4502,7 +4504,7 @@
       <c r="A318" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B318" s="3">
+      <c r="B318" s="4">
         <v>5</v>
       </c>
     </row>
@@ -4510,7 +4512,7 @@
       <c r="A319" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B319" s="3">
+      <c r="B319" s="4">
         <v>43</v>
       </c>
     </row>
@@ -4518,7 +4520,7 @@
       <c r="A320" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B320" s="3">
+      <c r="B320" s="4">
         <v>32</v>
       </c>
     </row>
@@ -4526,7 +4528,7 @@
       <c r="A321" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B321" s="3">
+      <c r="B321" s="4">
         <v>21</v>
       </c>
     </row>
@@ -4534,7 +4536,7 @@
       <c r="A322" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B322" s="3">
+      <c r="B322" s="4">
         <v>17</v>
       </c>
     </row>
@@ -4542,7 +4544,7 @@
       <c r="A323" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B323" s="3">
+      <c r="B323" s="4">
         <v>7</v>
       </c>
     </row>
@@ -4550,7 +4552,7 @@
       <c r="A324" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B324" s="3">
+      <c r="B324" s="4">
         <v>5</v>
       </c>
     </row>
@@ -4558,7 +4560,7 @@
       <c r="A325" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B325" s="3">
+      <c r="B325" s="4">
         <v>45</v>
       </c>
     </row>
@@ -4566,7 +4568,7 @@
       <c r="A326" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B326" s="3">
+      <c r="B326" s="4">
         <v>34</v>
       </c>
     </row>
@@ -4574,7 +4576,7 @@
       <c r="A327" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B327" s="3">
+      <c r="B327" s="4">
         <v>26</v>
       </c>
     </row>
@@ -4582,7 +4584,7 @@
       <c r="A328" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B328" s="3">
+      <c r="B328" s="4">
         <v>14</v>
       </c>
     </row>
@@ -4590,7 +4592,7 @@
       <c r="A329" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B329" s="3">
+      <c r="B329" s="4">
         <v>6</v>
       </c>
     </row>
@@ -4598,7 +4600,7 @@
       <c r="A330" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B330" s="3">
+      <c r="B330" s="4">
         <v>5</v>
       </c>
     </row>
@@ -4606,7 +4608,7 @@
       <c r="A331" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B331" s="3">
+      <c r="B331" s="4">
         <v>33</v>
       </c>
     </row>
@@ -4614,7 +4616,7 @@
       <c r="A332" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B332" s="3">
+      <c r="B332" s="4">
         <v>27</v>
       </c>
     </row>
@@ -4622,7 +4624,7 @@
       <c r="A333" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B333" s="3">
+      <c r="B333" s="4">
         <v>21</v>
       </c>
     </row>
@@ -4630,7 +4632,7 @@
       <c r="A334" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B334" s="3">
+      <c r="B334" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4638,7 +4640,7 @@
       <c r="A335" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B335" s="3">
+      <c r="B335" s="4">
         <v>5</v>
       </c>
     </row>
@@ -4646,7 +4648,7 @@
       <c r="A336" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B336" s="3">
+      <c r="B336" s="4">
         <v>5</v>
       </c>
     </row>
@@ -4654,7 +4656,7 @@
       <c r="A337" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B337" s="3">
+      <c r="B337" s="4">
         <v>53</v>
       </c>
     </row>
@@ -4662,7 +4664,7 @@
       <c r="A338" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B338" s="3">
+      <c r="B338" s="4">
         <v>47</v>
       </c>
     </row>
@@ -4670,7 +4672,7 @@
       <c r="A339" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B339" s="3">
+      <c r="B339" s="4">
         <v>27</v>
       </c>
     </row>
@@ -4678,7 +4680,7 @@
       <c r="A340" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B340" s="3">
+      <c r="B340" s="4">
         <v>15</v>
       </c>
     </row>
@@ -4686,7 +4688,7 @@
       <c r="A341" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B341" s="3">
+      <c r="B341" s="4">
         <v>6</v>
       </c>
     </row>
@@ -4694,7 +4696,7 @@
       <c r="A342" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B342" s="3">
+      <c r="B342" s="4">
         <v>5</v>
       </c>
     </row>
@@ -4702,7 +4704,7 @@
       <c r="A343" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B343" s="3">
+      <c r="B343" s="4">
         <v>47</v>
       </c>
     </row>
@@ -4710,7 +4712,7 @@
       <c r="A344" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B344" s="3">
+      <c r="B344" s="4">
         <v>39</v>
       </c>
     </row>
@@ -4718,7 +4720,7 @@
       <c r="A345" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B345" s="3">
+      <c r="B345" s="4">
         <v>25</v>
       </c>
     </row>
@@ -4726,7 +4728,7 @@
       <c r="A346" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B346" s="3">
+      <c r="B346" s="4">
         <v>17</v>
       </c>
     </row>
@@ -4734,7 +4736,7 @@
       <c r="A347" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B347" s="3">
+      <c r="B347" s="4">
         <v>9</v>
       </c>
     </row>
@@ -4742,15 +4744,15 @@
       <c r="A348" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B348" s="3">
-        <v>5</v>
+      <c r="B348" s="4">
+        <v>4</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A349" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B349" s="3">
+      <c r="B349" s="4">
         <v>39</v>
       </c>
     </row>
@@ -4758,7 +4760,7 @@
       <c r="A350" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B350" s="3">
+      <c r="B350" s="4">
         <v>26</v>
       </c>
     </row>
@@ -4766,7 +4768,7 @@
       <c r="A351" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B351" s="3">
+      <c r="B351" s="4">
         <v>19</v>
       </c>
     </row>
@@ -4774,7 +4776,7 @@
       <c r="A352" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B352" s="3">
+      <c r="B352" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4782,7 +4784,7 @@
       <c r="A353" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B353" s="3">
+      <c r="B353" s="4">
         <v>4</v>
       </c>
     </row>
@@ -4790,7 +4792,7 @@
       <c r="A354" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B354" s="3">
+      <c r="B354" s="4">
         <v>35</v>
       </c>
     </row>
@@ -4798,7 +4800,7 @@
       <c r="A355" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B355" s="3">
+      <c r="B355" s="4">
         <v>24</v>
       </c>
     </row>
@@ -4806,7 +4808,7 @@
       <c r="A356" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B356" s="3">
+      <c r="B356" s="4">
         <v>18</v>
       </c>
     </row>
@@ -4814,7 +4816,7 @@
       <c r="A357" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B357" s="3">
+      <c r="B357" s="4">
         <v>7</v>
       </c>
     </row>
@@ -4822,7 +4824,7 @@
       <c r="A358" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B358" s="3">
+      <c r="B358" s="4">
         <v>4</v>
       </c>
     </row>
@@ -4830,7 +4832,7 @@
       <c r="A359" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B359" s="3">
+      <c r="B359" s="4">
         <v>31</v>
       </c>
     </row>
@@ -4838,7 +4840,7 @@
       <c r="A360" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B360" s="3">
+      <c r="B360" s="4">
         <v>27</v>
       </c>
     </row>
@@ -4846,7 +4848,7 @@
       <c r="A361" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B361" s="3">
+      <c r="B361" s="4">
         <v>18</v>
       </c>
     </row>
@@ -4854,7 +4856,7 @@
       <c r="A362" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B362" s="3">
+      <c r="B362" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4862,15 +4864,15 @@
       <c r="A363" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B363" s="3">
-        <v>4</v>
+      <c r="B363" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A364" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B364" s="3">
+      <c r="B364" s="4">
         <v>48</v>
       </c>
     </row>
@@ -4878,7 +4880,7 @@
       <c r="A365" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B365" s="3">
+      <c r="B365" s="4">
         <v>41</v>
       </c>
     </row>
@@ -4886,7 +4888,7 @@
       <c r="A366" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B366" s="3">
+      <c r="B366" s="4">
         <v>34</v>
       </c>
     </row>
@@ -4894,7 +4896,7 @@
       <c r="A367" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B367" s="3">
+      <c r="B367" s="4">
         <v>25</v>
       </c>
     </row>
@@ -4902,7 +4904,7 @@
       <c r="A368" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B368" s="3">
+      <c r="B368" s="4">
         <v>12</v>
       </c>
     </row>
@@ -4910,7 +4912,7 @@
       <c r="A369" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B369" s="3">
+      <c r="B369" s="4">
         <v>5</v>
       </c>
     </row>
@@ -4918,7 +4920,7 @@
       <c r="A370" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B370" s="3">
+      <c r="B370" s="4">
         <v>38</v>
       </c>
     </row>
@@ -4926,7 +4928,7 @@
       <c r="A371" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B371" s="3">
+      <c r="B371" s="4">
         <v>29</v>
       </c>
     </row>
@@ -4934,7 +4936,7 @@
       <c r="A372" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B372" s="3">
+      <c r="B372" s="4">
         <v>25</v>
       </c>
     </row>
@@ -4942,7 +4944,7 @@
       <c r="A373" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B373" s="3">
+      <c r="B373" s="4">
         <v>13</v>
       </c>
     </row>
@@ -4950,7 +4952,7 @@
       <c r="A374" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B374" s="3">
+      <c r="B374" s="4">
         <v>7</v>
       </c>
     </row>
@@ -4958,15 +4960,15 @@
       <c r="A375" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B375" s="3">
-        <v>5</v>
+      <c r="B375" s="4">
+        <v>4</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A376" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B376" s="3">
+      <c r="B376" s="4">
         <v>31</v>
       </c>
     </row>
@@ -4974,7 +4976,7 @@
       <c r="A377" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B377" s="3">
+      <c r="B377" s="4">
         <v>26</v>
       </c>
     </row>
@@ -4982,7 +4984,7 @@
       <c r="A378" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B378" s="3">
+      <c r="B378" s="4">
         <v>19</v>
       </c>
     </row>
@@ -4990,7 +4992,7 @@
       <c r="A379" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B379" s="3">
+      <c r="B379" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4998,7 +5000,7 @@
       <c r="A380" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B380" s="3">
+      <c r="B380" s="4">
         <v>4</v>
       </c>
     </row>
@@ -5006,7 +5008,7 @@
       <c r="A381" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B381" s="3">
+      <c r="B381" s="4">
         <v>41</v>
       </c>
     </row>
@@ -5014,7 +5016,7 @@
       <c r="A382" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B382" s="3">
+      <c r="B382" s="4">
         <v>37</v>
       </c>
     </row>
@@ -5022,7 +5024,7 @@
       <c r="A383" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B383" s="3">
+      <c r="B383" s="4">
         <v>25</v>
       </c>
     </row>
@@ -5030,7 +5032,7 @@
       <c r="A384" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B384" s="3">
+      <c r="B384" s="4">
         <v>14</v>
       </c>
     </row>
@@ -5038,7 +5040,7 @@
       <c r="A385" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B385" s="3">
+      <c r="B385" s="4">
         <v>4</v>
       </c>
     </row>
@@ -5046,7 +5048,7 @@
       <c r="A386" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B386" s="3">
+      <c r="B386" s="4">
         <v>31</v>
       </c>
     </row>
@@ -5054,7 +5056,7 @@
       <c r="A387" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B387" s="3">
+      <c r="B387" s="4">
         <v>27</v>
       </c>
     </row>
@@ -5062,7 +5064,7 @@
       <c r="A388" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B388" s="3">
+      <c r="B388" s="4">
         <v>15</v>
       </c>
     </row>
@@ -5070,7 +5072,7 @@
       <c r="A389" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B389" s="3">
+      <c r="B389" s="4">
         <v>10</v>
       </c>
     </row>
@@ -5078,15 +5080,15 @@
       <c r="A390" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B390" s="3">
-        <v>4</v>
+      <c r="B390" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A391" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B391" s="3">
+      <c r="B391" s="4">
         <v>44</v>
       </c>
     </row>
@@ -5094,7 +5096,7 @@
       <c r="A392" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B392" s="3">
+      <c r="B392" s="4">
         <v>38</v>
       </c>
     </row>
@@ -5102,7 +5104,7 @@
       <c r="A393" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B393" s="3">
+      <c r="B393" s="4">
         <v>29</v>
       </c>
     </row>
@@ -5110,7 +5112,7 @@
       <c r="A394" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B394" s="3">
+      <c r="B394" s="4">
         <v>17</v>
       </c>
     </row>
@@ -5118,7 +5120,7 @@
       <c r="A395" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B395" s="3">
+      <c r="B395" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5126,7 +5128,7 @@
       <c r="A396" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B396" s="3">
+      <c r="B396" s="4">
         <v>5</v>
       </c>
     </row>
@@ -5134,7 +5136,7 @@
       <c r="A397" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B397" s="3">
+      <c r="B397" s="4">
         <v>37</v>
       </c>
     </row>
@@ -5142,7 +5144,7 @@
       <c r="A398" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B398" s="3">
+      <c r="B398" s="4">
         <v>31</v>
       </c>
     </row>
@@ -5150,7 +5152,7 @@
       <c r="A399" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B399" s="3">
+      <c r="B399" s="4">
         <v>26</v>
       </c>
     </row>
@@ -5158,7 +5160,7 @@
       <c r="A400" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B400" s="3">
+      <c r="B400" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5166,7 +5168,7 @@
       <c r="A401" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B401" s="3">
+      <c r="B401" s="4">
         <v>7</v>
       </c>
     </row>
@@ -5174,7 +5176,7 @@
       <c r="A402" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B402" s="3">
+      <c r="B402" s="4">
         <v>5</v>
       </c>
     </row>
@@ -5182,7 +5184,7 @@
       <c r="A403" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B403" s="3">
+      <c r="B403" s="4">
         <v>41</v>
       </c>
     </row>
@@ -5190,7 +5192,7 @@
       <c r="A404" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B404" s="3">
+      <c r="B404" s="4">
         <v>38</v>
       </c>
     </row>
@@ -5198,7 +5200,7 @@
       <c r="A405" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B405" s="3">
+      <c r="B405" s="4">
         <v>25</v>
       </c>
     </row>
@@ -5206,7 +5208,7 @@
       <c r="A406" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B406" s="3">
+      <c r="B406" s="4">
         <v>14</v>
       </c>
     </row>
@@ -5214,7 +5216,7 @@
       <c r="A407" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B407" s="3">
+      <c r="B407" s="4">
         <v>8</v>
       </c>
     </row>
@@ -5222,7 +5224,7 @@
       <c r="A408" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B408" s="3">
+      <c r="B408" s="4">
         <v>5</v>
       </c>
     </row>
@@ -5230,7 +5232,7 @@
       <c r="A409" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B409" s="3">
+      <c r="B409" s="4">
         <v>36</v>
       </c>
     </row>
@@ -5238,7 +5240,7 @@
       <c r="A410" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B410" s="3">
+      <c r="B410" s="4">
         <v>29</v>
       </c>
     </row>
@@ -5246,7 +5248,7 @@
       <c r="A411" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B411" s="3">
+      <c r="B411" s="4">
         <v>21</v>
       </c>
     </row>
@@ -5254,7 +5256,7 @@
       <c r="A412" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B412" s="3">
+      <c r="B412" s="4">
         <v>15</v>
       </c>
     </row>
@@ -5262,7 +5264,7 @@
       <c r="A413" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B413" s="3">
+      <c r="B413" s="4">
         <v>9</v>
       </c>
     </row>
@@ -5270,7 +5272,7 @@
       <c r="A414" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B414" s="3">
+      <c r="B414" s="4">
         <v>5</v>
       </c>
     </row>
@@ -5278,7 +5280,7 @@
       <c r="A415" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B415" s="3">
+      <c r="B415" s="4">
         <v>39</v>
       </c>
     </row>
@@ -5286,7 +5288,7 @@
       <c r="A416" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B416" s="3">
+      <c r="B416" s="4">
         <v>28</v>
       </c>
     </row>
@@ -5294,7 +5296,7 @@
       <c r="A417" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B417" s="3">
+      <c r="B417" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5302,7 +5304,7 @@
       <c r="A418" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B418" s="3">
+      <c r="B418" s="4">
         <v>13</v>
       </c>
     </row>
@@ -5310,7 +5312,7 @@
       <c r="A419" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B419" s="3">
+      <c r="B419" s="4">
         <v>6</v>
       </c>
     </row>
@@ -5318,7 +5320,7 @@
       <c r="A420" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B420" s="3">
+      <c r="B420" s="4">
         <v>5</v>
       </c>
     </row>
@@ -5326,7 +5328,7 @@
       <c r="A421" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B421" s="3">
+      <c r="B421" s="4">
         <v>47</v>
       </c>
     </row>
@@ -5334,7 +5336,7 @@
       <c r="A422" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B422" s="3">
+      <c r="B422" s="4">
         <v>39</v>
       </c>
     </row>
@@ -5342,7 +5344,7 @@
       <c r="A423" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B423" s="3">
+      <c r="B423" s="4">
         <v>25</v>
       </c>
     </row>
@@ -5350,7 +5352,7 @@
       <c r="A424" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B424" s="3">
+      <c r="B424" s="4">
         <v>18</v>
       </c>
     </row>
@@ -5358,7 +5360,7 @@
       <c r="A425" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B425" s="3">
+      <c r="B425" s="4">
         <v>12</v>
       </c>
     </row>
@@ -5366,7 +5368,7 @@
       <c r="A426" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B426" s="3">
+      <c r="B426" s="4">
         <v>5</v>
       </c>
     </row>
@@ -5374,7 +5376,7 @@
       <c r="A427" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B427" s="3">
+      <c r="B427" s="4">
         <v>31</v>
       </c>
     </row>
@@ -5382,7 +5384,7 @@
       <c r="A428" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B428" s="3">
+      <c r="B428" s="4">
         <v>28</v>
       </c>
     </row>
@@ -5390,7 +5392,7 @@
       <c r="A429" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B429" s="3">
+      <c r="B429" s="4">
         <v>21</v>
       </c>
     </row>
@@ -5398,7 +5400,7 @@
       <c r="A430" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B430" s="3">
+      <c r="B430" s="4">
         <v>15</v>
       </c>
     </row>
@@ -5406,7 +5408,7 @@
       <c r="A431" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B431" s="3">
+      <c r="B431" s="4">
         <v>8</v>
       </c>
     </row>
@@ -5414,7 +5416,7 @@
       <c r="A432" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B432" s="3">
+      <c r="B432" s="4">
         <v>5</v>
       </c>
     </row>
@@ -5422,7 +5424,7 @@
       <c r="A433" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B433" s="3">
+      <c r="B433" s="4">
         <v>37</v>
       </c>
     </row>
@@ -5430,7 +5432,7 @@
       <c r="A434" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B434" s="3">
+      <c r="B434" s="4">
         <v>31</v>
       </c>
     </row>
@@ -5438,7 +5440,7 @@
       <c r="A435" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B435" s="3">
+      <c r="B435" s="4">
         <v>26</v>
       </c>
     </row>
@@ -5446,7 +5448,7 @@
       <c r="A436" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B436" s="3">
+      <c r="B436" s="4">
         <v>14</v>
       </c>
     </row>
@@ -5454,7 +5456,7 @@
       <c r="A437" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B437" s="3">
+      <c r="B437" s="4">
         <v>9</v>
       </c>
     </row>
@@ -5462,15 +5464,15 @@
       <c r="A438" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B438" s="3">
-        <v>5</v>
+      <c r="B438" s="4">
+        <v>4</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A439" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B439" s="3">
+      <c r="B439" s="4">
         <v>51</v>
       </c>
     </row>
@@ -5478,7 +5480,7 @@
       <c r="A440" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B440" s="3">
+      <c r="B440" s="4">
         <v>37</v>
       </c>
     </row>
@@ -5486,7 +5488,7 @@
       <c r="A441" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B441" s="3">
+      <c r="B441" s="4">
         <v>21</v>
       </c>
     </row>
@@ -5494,7 +5496,7 @@
       <c r="A442" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B442" s="3">
+      <c r="B442" s="4">
         <v>12</v>
       </c>
     </row>
@@ -5502,15 +5504,15 @@
       <c r="A443" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B443" s="3">
-        <v>4</v>
+      <c r="B443" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A444" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B444" s="3">
+      <c r="B444" s="4">
         <v>45</v>
       </c>
     </row>
@@ -5518,7 +5520,7 @@
       <c r="A445" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B445" s="3">
+      <c r="B445" s="4">
         <v>31</v>
       </c>
     </row>
@@ -5526,7 +5528,7 @@
       <c r="A446" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B446" s="3">
+      <c r="B446" s="4">
         <v>24</v>
       </c>
     </row>
@@ -5534,7 +5536,7 @@
       <c r="A447" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B447" s="3">
+      <c r="B447" s="4">
         <v>13</v>
       </c>
     </row>
@@ -5542,7 +5544,7 @@
       <c r="A448" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B448" s="3">
+      <c r="B448" s="4">
         <v>7</v>
       </c>
     </row>
@@ -5550,7 +5552,7 @@
       <c r="A449" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B449" s="3">
+      <c r="B449" s="4">
         <v>5</v>
       </c>
     </row>
@@ -5558,7 +5560,7 @@
       <c r="A450" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B450" s="3">
+      <c r="B450" s="4">
         <v>51</v>
       </c>
     </row>
@@ -5566,7 +5568,7 @@
       <c r="A451" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B451" s="3">
+      <c r="B451" s="4">
         <v>47</v>
       </c>
     </row>
@@ -5574,7 +5576,7 @@
       <c r="A452" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B452" s="3">
+      <c r="B452" s="4">
         <v>30</v>
       </c>
     </row>
@@ -5582,7 +5584,7 @@
       <c r="A453" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B453" s="3">
+      <c r="B453" s="4">
         <v>23</v>
       </c>
     </row>
@@ -5590,7 +5592,7 @@
       <c r="A454" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B454" s="3">
+      <c r="B454" s="4">
         <v>13</v>
       </c>
     </row>
@@ -5598,7 +5600,7 @@
       <c r="A455" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B455" s="3">
+      <c r="B455" s="4">
         <v>5</v>
       </c>
     </row>
@@ -5606,7 +5608,7 @@
       <c r="A456" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B456" s="3">
+      <c r="B456" s="4">
         <v>40</v>
       </c>
     </row>
@@ -5614,7 +5616,7 @@
       <c r="A457" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B457" s="3">
+      <c r="B457" s="4">
         <v>34</v>
       </c>
     </row>
@@ -5622,7 +5624,7 @@
       <c r="A458" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B458" s="3">
+      <c r="B458" s="4">
         <v>27</v>
       </c>
     </row>
@@ -5630,7 +5632,7 @@
       <c r="A459" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B459" s="3">
+      <c r="B459" s="4">
         <v>13</v>
       </c>
     </row>
@@ -5638,7 +5640,7 @@
       <c r="A460" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B460" s="3">
+      <c r="B460" s="4">
         <v>9</v>
       </c>
     </row>
@@ -5646,7 +5648,7 @@
       <c r="A461" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B461" s="3">
+      <c r="B461" s="4">
         <v>5</v>
       </c>
     </row>
@@ -5654,7 +5656,7 @@
       <c r="A462" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B462" s="3">
+      <c r="B462" s="4">
         <v>38</v>
       </c>
     </row>
@@ -5662,7 +5664,7 @@
       <c r="A463" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B463" s="3">
+      <c r="B463" s="4">
         <v>25</v>
       </c>
     </row>
@@ -5670,7 +5672,7 @@
       <c r="A464" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B464" s="3">
+      <c r="B464" s="4">
         <v>14</v>
       </c>
     </row>
@@ -5678,7 +5680,7 @@
       <c r="A465" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B465" s="3">
+      <c r="B465" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5686,7 +5688,7 @@
       <c r="A466" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B466" s="3">
+      <c r="B466" s="4">
         <v>7</v>
       </c>
     </row>
@@ -5694,7 +5696,7 @@
       <c r="A467" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B467" s="3">
+      <c r="B467" s="4">
         <v>5</v>
       </c>
     </row>
@@ -5702,7 +5704,7 @@
       <c r="A468" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B468" s="3">
+      <c r="B468" s="4">
         <v>45</v>
       </c>
     </row>
@@ -5710,7 +5712,7 @@
       <c r="A469" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B469" s="3">
+      <c r="B469" s="4">
         <v>31</v>
       </c>
     </row>
@@ -5718,7 +5720,7 @@
       <c r="A470" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B470" s="3">
+      <c r="B470" s="4">
         <v>26</v>
       </c>
     </row>
@@ -5726,7 +5728,7 @@
       <c r="A471" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B471" s="3">
+      <c r="B471" s="4">
         <v>14</v>
       </c>
     </row>
@@ -5734,7 +5736,7 @@
       <c r="A472" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B472" s="3">
+      <c r="B472" s="4">
         <v>10</v>
       </c>
     </row>
@@ -5742,7 +5744,7 @@
       <c r="A473" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B473" s="3">
+      <c r="B473" s="4">
         <v>5</v>
       </c>
     </row>
@@ -5750,7 +5752,7 @@
       <c r="A474" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B474" s="3">
+      <c r="B474" s="4">
         <v>36</v>
       </c>
     </row>
@@ -5758,7 +5760,7 @@
       <c r="A475" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B475" s="3">
+      <c r="B475" s="4">
         <v>27</v>
       </c>
     </row>
@@ -5766,7 +5768,7 @@
       <c r="A476" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B476" s="3">
+      <c r="B476" s="4">
         <v>21</v>
       </c>
     </row>
@@ -5774,7 +5776,7 @@
       <c r="A477" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B477" s="3">
+      <c r="B477" s="4">
         <v>14</v>
       </c>
     </row>
@@ -5782,7 +5784,7 @@
       <c r="A478" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B478" s="3">
+      <c r="B478" s="4">
         <v>8</v>
       </c>
     </row>
@@ -5790,7 +5792,7 @@
       <c r="A479" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B479" s="3">
+      <c r="B479" s="4">
         <v>5</v>
       </c>
     </row>
@@ -5798,7 +5800,7 @@
       <c r="A480" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B480" s="3">
+      <c r="B480" s="4">
         <v>37</v>
       </c>
     </row>
@@ -5806,7 +5808,7 @@
       <c r="A481" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B481" s="3">
+      <c r="B481" s="4">
         <v>26</v>
       </c>
     </row>
@@ -5814,7 +5816,7 @@
       <c r="A482" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B482" s="3">
+      <c r="B482" s="4">
         <v>19</v>
       </c>
     </row>
@@ -5822,7 +5824,7 @@
       <c r="A483" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B483" s="3">
+      <c r="B483" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5830,7 +5832,7 @@
       <c r="A484" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B484" s="3">
+      <c r="B484" s="4">
         <v>7</v>
       </c>
     </row>
@@ -5838,7 +5840,7 @@
       <c r="A485" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B485" s="3">
+      <c r="B485" s="4">
         <v>5</v>
       </c>
     </row>
@@ -5846,7 +5848,7 @@
       <c r="A486" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B486" s="3">
+      <c r="B486" s="4">
         <v>35</v>
       </c>
     </row>
@@ -5854,7 +5856,7 @@
       <c r="A487" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B487" s="3">
+      <c r="B487" s="4">
         <v>27</v>
       </c>
     </row>
@@ -5862,7 +5864,7 @@
       <c r="A488" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B488" s="3">
+      <c r="B488" s="4">
         <v>21</v>
       </c>
     </row>
@@ -5870,7 +5872,7 @@
       <c r="A489" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B489" s="3">
+      <c r="B489" s="4">
         <v>15</v>
       </c>
     </row>
@@ -5878,7 +5880,7 @@
       <c r="A490" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B490" s="3">
+      <c r="B490" s="4">
         <v>8</v>
       </c>
     </row>
@@ -5886,7 +5888,7 @@
       <c r="A491" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B491" s="3">
+      <c r="B491" s="4">
         <v>5</v>
       </c>
     </row>
@@ -5894,7 +5896,7 @@
       <c r="A492" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B492" s="3">
+      <c r="B492" s="4">
         <v>32</v>
       </c>
     </row>
@@ -5902,7 +5904,7 @@
       <c r="A493" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B493" s="3">
+      <c r="B493" s="4">
         <v>28</v>
       </c>
     </row>
@@ -5910,7 +5912,7 @@
       <c r="A494" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B494" s="3">
+      <c r="B494" s="4">
         <v>19</v>
       </c>
     </row>
@@ -5918,7 +5920,7 @@
       <c r="A495" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B495" s="3">
+      <c r="B495" s="4">
         <v>14</v>
       </c>
     </row>
@@ -5926,7 +5928,7 @@
       <c r="A496" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B496" s="3">
+      <c r="B496" s="4">
         <v>9</v>
       </c>
     </row>
@@ -5934,15 +5936,15 @@
       <c r="A497" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B497" s="3">
-        <v>5</v>
+      <c r="B497" s="4">
+        <v>4</v>
       </c>
     </row>
     <row r="498" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A498" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B498" s="3">
+      <c r="B498" s="4">
         <v>33</v>
       </c>
     </row>
@@ -5950,7 +5952,7 @@
       <c r="A499" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B499" s="3">
+      <c r="B499" s="4">
         <v>27</v>
       </c>
     </row>
@@ -5958,7 +5960,7 @@
       <c r="A500" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B500" s="3">
+      <c r="B500" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5966,7 +5968,7 @@
       <c r="A501" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B501" s="3">
+      <c r="B501" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5974,15 +5976,15 @@
       <c r="A502" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B502" s="3">
-        <v>4</v>
+      <c r="B502" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A503" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B503" s="3">
+      <c r="B503" s="4">
         <v>47</v>
       </c>
     </row>
@@ -5990,7 +5992,7 @@
       <c r="A504" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B504" s="3">
+      <c r="B504" s="4">
         <v>31</v>
       </c>
     </row>
@@ -5998,7 +6000,7 @@
       <c r="A505" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B505" s="3">
+      <c r="B505" s="4">
         <v>28</v>
       </c>
     </row>
@@ -6006,7 +6008,7 @@
       <c r="A506" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B506" s="3">
+      <c r="B506" s="4">
         <v>21</v>
       </c>
     </row>
@@ -6014,7 +6016,7 @@
       <c r="A507" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B507" s="3">
+      <c r="B507" s="4">
         <v>13</v>
       </c>
     </row>
@@ -6022,15 +6024,15 @@
       <c r="A508" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B508" s="3">
-        <v>5</v>
+      <c r="B508" s="4">
+        <v>4</v>
       </c>
     </row>
     <row r="509" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A509" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B509" s="3">
+      <c r="B509" s="4">
         <v>33</v>
       </c>
     </row>
@@ -6038,7 +6040,7 @@
       <c r="A510" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B510" s="3">
+      <c r="B510" s="4">
         <v>27</v>
       </c>
     </row>
@@ -6046,7 +6048,7 @@
       <c r="A511" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="B511" s="3">
+      <c r="B511" s="4">
         <v>18</v>
       </c>
     </row>
@@ -6054,7 +6056,7 @@
       <c r="A512" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B512" s="3">
+      <c r="B512" s="4">
         <v>10</v>
       </c>
     </row>
@@ -6062,15 +6064,15 @@
       <c r="A513" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B513" s="3">
-        <v>4</v>
+      <c r="B513" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A514" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B514" s="3">
+      <c r="B514" s="4">
         <v>35</v>
       </c>
     </row>
@@ -6078,7 +6080,7 @@
       <c r="A515" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B515" s="3">
+      <c r="B515" s="4">
         <v>31</v>
       </c>
     </row>
@@ -6086,7 +6088,7 @@
       <c r="A516" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B516" s="3">
+      <c r="B516" s="4">
         <v>25</v>
       </c>
     </row>
@@ -6094,7 +6096,7 @@
       <c r="A517" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B517" s="3">
+      <c r="B517" s="4">
         <v>14</v>
       </c>
     </row>
@@ -6102,7 +6104,7 @@
       <c r="A518" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B518" s="3">
+      <c r="B518" s="4">
         <v>9</v>
       </c>
     </row>
@@ -6110,7 +6112,7 @@
       <c r="A519" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B519" s="3">
+      <c r="B519" s="4">
         <v>5</v>
       </c>
     </row>
@@ -6118,7 +6120,7 @@
       <c r="A520" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B520" s="3">
+      <c r="B520" s="4">
         <v>44</v>
       </c>
     </row>
@@ -6126,7 +6128,7 @@
       <c r="A521" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B521" s="3">
+      <c r="B521" s="4">
         <v>39</v>
       </c>
     </row>
@@ -6134,7 +6136,7 @@
       <c r="A522" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B522" s="3">
+      <c r="B522" s="4">
         <v>28</v>
       </c>
     </row>
@@ -6142,7 +6144,7 @@
       <c r="A523" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="B523" s="3">
+      <c r="B523" s="4">
         <v>18</v>
       </c>
     </row>
@@ -6150,7 +6152,7 @@
       <c r="A524" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B524" s="3">
+      <c r="B524" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6158,15 +6160,15 @@
       <c r="A525" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B525" s="3">
-        <v>5</v>
+      <c r="B525" s="4">
+        <v>4</v>
       </c>
     </row>
     <row r="526" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A526" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="B526" s="3">
+      <c r="B526" s="4">
         <v>31</v>
       </c>
     </row>
@@ -6174,7 +6176,7 @@
       <c r="A527" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B527" s="3">
+      <c r="B527" s="4">
         <v>27</v>
       </c>
     </row>
@@ -6182,7 +6184,7 @@
       <c r="A528" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B528" s="3">
+      <c r="B528" s="4">
         <v>20</v>
       </c>
     </row>
@@ -6190,7 +6192,7 @@
       <c r="A529" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B529" s="3">
+      <c r="B529" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6198,15 +6200,15 @@
       <c r="A530" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B530" s="3">
-        <v>4</v>
+      <c r="B530" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="531" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A531" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="B531" s="3">
+      <c r="B531" s="4">
         <v>46</v>
       </c>
     </row>
@@ -6214,7 +6216,7 @@
       <c r="A532" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B532" s="3">
+      <c r="B532" s="4">
         <v>38</v>
       </c>
     </row>
@@ -6222,7 +6224,7 @@
       <c r="A533" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B533" s="3">
+      <c r="B533" s="4">
         <v>26</v>
       </c>
     </row>
@@ -6230,7 +6232,7 @@
       <c r="A534" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B534" s="3">
+      <c r="B534" s="4">
         <v>14</v>
       </c>
     </row>
@@ -6238,7 +6240,7 @@
       <c r="A535" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B535" s="3">
+      <c r="B535" s="4">
         <v>8</v>
       </c>
     </row>
@@ -6246,15 +6248,15 @@
       <c r="A536" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B536" s="3">
-        <v>5</v>
+      <c r="B536" s="4">
+        <v>4</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A537" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="B537" s="3">
+      <c r="B537" s="4">
         <v>43</v>
       </c>
     </row>
@@ -6262,7 +6264,7 @@
       <c r="A538" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B538" s="3">
+      <c r="B538" s="4">
         <v>37</v>
       </c>
     </row>
@@ -6270,7 +6272,7 @@
       <c r="A539" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="B539" s="3">
+      <c r="B539" s="4">
         <v>24</v>
       </c>
     </row>
@@ -6278,7 +6280,7 @@
       <c r="A540" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="B540" s="3">
+      <c r="B540" s="4">
         <v>13</v>
       </c>
     </row>
@@ -6286,7 +6288,7 @@
       <c r="A541" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B541" s="3">
+      <c r="B541" s="4">
         <v>4</v>
       </c>
     </row>
@@ -6294,7 +6296,7 @@
       <c r="A542" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B542" s="3">
+      <c r="B542" s="4">
         <v>38</v>
       </c>
     </row>
@@ -6302,7 +6304,7 @@
       <c r="A543" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B543" s="3">
+      <c r="B543" s="4">
         <v>27</v>
       </c>
     </row>
@@ -6310,7 +6312,7 @@
       <c r="A544" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B544" s="3">
+      <c r="B544" s="4">
         <v>18</v>
       </c>
     </row>
@@ -6318,7 +6320,7 @@
       <c r="A545" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B545" s="3">
+      <c r="B545" s="4">
         <v>10</v>
       </c>
     </row>
@@ -6326,15 +6328,15 @@
       <c r="A546" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B546" s="3">
-        <v>4</v>
+      <c r="B546" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="547" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A547" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="B547" s="3">
+      <c r="B547" s="4">
         <v>43</v>
       </c>
     </row>
@@ -6342,7 +6344,7 @@
       <c r="A548" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="B548" s="3">
+      <c r="B548" s="4">
         <v>32</v>
       </c>
     </row>
@@ -6350,7 +6352,7 @@
       <c r="A549" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B549" s="3">
+      <c r="B549" s="4">
         <v>24</v>
       </c>
     </row>
@@ -6358,7 +6360,7 @@
       <c r="A550" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B550" s="3">
+      <c r="B550" s="4">
         <v>15</v>
       </c>
     </row>
@@ -6366,7 +6368,7 @@
       <c r="A551" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B551" s="3">
+      <c r="B551" s="4">
         <v>8</v>
       </c>
     </row>
@@ -6374,7 +6376,7 @@
       <c r="A552" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B552" s="3">
+      <c r="B552" s="4">
         <v>5</v>
       </c>
     </row>
@@ -6382,7 +6384,7 @@
       <c r="A553" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B553" s="3">
+      <c r="B553" s="4">
         <v>48</v>
       </c>
     </row>
@@ -6390,7 +6392,7 @@
       <c r="A554" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B554" s="3">
+      <c r="B554" s="4">
         <v>39</v>
       </c>
     </row>
@@ -6398,7 +6400,7 @@
       <c r="A555" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B555" s="3">
+      <c r="B555" s="4">
         <v>26</v>
       </c>
     </row>
@@ -6406,7 +6408,7 @@
       <c r="A556" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B556" s="3">
+      <c r="B556" s="4">
         <v>14</v>
       </c>
     </row>
@@ -6414,7 +6416,7 @@
       <c r="A557" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B557" s="3">
+      <c r="B557" s="4">
         <v>9</v>
       </c>
     </row>
@@ -6422,15 +6424,15 @@
       <c r="A558" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B558" s="3">
-        <v>5</v>
+      <c r="B558" s="4">
+        <v>4</v>
       </c>
     </row>
     <row r="559" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A559" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B559" s="3">
+      <c r="B559" s="4">
         <v>36</v>
       </c>
     </row>
@@ -6438,7 +6440,7 @@
       <c r="A560" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B560" s="3">
+      <c r="B560" s="4">
         <v>28</v>
       </c>
     </row>
@@ -6446,7 +6448,7 @@
       <c r="A561" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B561" s="3">
+      <c r="B561" s="4">
         <v>15</v>
       </c>
     </row>
@@ -6454,7 +6456,7 @@
       <c r="A562" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B562" s="3">
+      <c r="B562" s="4">
         <v>9</v>
       </c>
     </row>
@@ -6462,15 +6464,15 @@
       <c r="A563" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B563" s="3">
-        <v>4</v>
+      <c r="B563" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A564" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B564" s="3">
+      <c r="B564" s="4">
         <v>44</v>
       </c>
     </row>
@@ -6478,7 +6480,7 @@
       <c r="A565" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="B565" s="3">
+      <c r="B565" s="4">
         <v>31</v>
       </c>
     </row>
@@ -6486,7 +6488,7 @@
       <c r="A566" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="B566" s="3">
+      <c r="B566" s="4">
         <v>26</v>
       </c>
     </row>
@@ -6494,7 +6496,7 @@
       <c r="A567" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B567" s="3">
+      <c r="B567" s="4">
         <v>13</v>
       </c>
     </row>
@@ -6502,7 +6504,7 @@
       <c r="A568" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="B568" s="3">
+      <c r="B568" s="4">
         <v>8</v>
       </c>
     </row>
@@ -6510,7 +6512,7 @@
       <c r="A569" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B569" s="3">
+      <c r="B569" s="4">
         <v>5</v>
       </c>
     </row>
@@ -6518,7 +6520,7 @@
       <c r="A570" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B570" s="3">
+      <c r="B570" s="4">
         <v>30</v>
       </c>
     </row>
@@ -6526,7 +6528,7 @@
       <c r="A571" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B571" s="3">
+      <c r="B571" s="4">
         <v>27</v>
       </c>
     </row>
@@ -6534,7 +6536,7 @@
       <c r="A572" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B572" s="3">
+      <c r="B572" s="4">
         <v>15</v>
       </c>
     </row>
@@ -6542,7 +6544,7 @@
       <c r="A573" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="B573" s="3">
+      <c r="B573" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6550,7 +6552,7 @@
       <c r="A574" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B574" s="3">
+      <c r="B574" s="4">
         <v>9</v>
       </c>
     </row>
@@ -6558,7 +6560,7 @@
       <c r="A575" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B575" s="3">
+      <c r="B575" s="4">
         <v>5</v>
       </c>
     </row>
@@ -6566,7 +6568,7 @@
       <c r="A576" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="B576" s="3">
+      <c r="B576" s="4">
         <v>37</v>
       </c>
     </row>
@@ -6574,7 +6576,7 @@
       <c r="A577" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B577" s="3">
+      <c r="B577" s="4">
         <v>29</v>
       </c>
     </row>
@@ -6582,7 +6584,7 @@
       <c r="A578" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="B578" s="3">
+      <c r="B578" s="4">
         <v>21</v>
       </c>
     </row>
@@ -6590,7 +6592,7 @@
       <c r="A579" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B579" s="3">
+      <c r="B579" s="4">
         <v>15</v>
       </c>
     </row>
@@ -6598,7 +6600,7 @@
       <c r="A580" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="B580" s="3">
+      <c r="B580" s="4">
         <v>8</v>
       </c>
     </row>
